--- a/_data/data.xlsx
+++ b/_data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briac\git\bab-a-velo\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA2F51-D306-4018-B0DF-46AC40A1145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2CD47-56D4-41E2-AA69-399E6E9DFA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BF2F094-2AF3-4F97-9DFC-FB300D796DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5BF2F094-2AF3-4F97-9DFC-FB300D796DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Trajets" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF6C08D-8714-4B59-AF4B-AB3081A3DF97}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5480694-7368-450D-8AFA-446FD6A20927}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2888,14 +2888,14 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>569</v>
+        <v>418</v>
       </c>
       <c r="D30">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"Bassussary": {label:"Bassussary", x:569, y:510},</v>
+        <v>"Bassussary": {label:"Bassussary", x:418, y:517},</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,14 +2906,14 @@
         <v>58</v>
       </c>
       <c r="C31">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="D31">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"Izarbel": {label:"Technopôle Izarbel", x:286, y:518},</v>
+        <v>"Izarbel": {label:"Technopôle Izarbel", x:212, y:535},</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2924,14 +2924,14 @@
         <v>59</v>
       </c>
       <c r="C32">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="D32">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"LoreLanda": {label:"Pôle Lore Landa", x:420, y:528},</v>
+        <v>"LoreLanda": {label:"Pôle Lore Landa", x:269, y:534},</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2978,14 +2978,14 @@
         <v>22</v>
       </c>
       <c r="C35">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="D35">
         <v>578</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"Arbonne": {label:"Arbonne", x:435, y:578},</v>
+        <v>"Arbonne": {label:"Arbonne", x:350, y:578},</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,11 +2999,11 @@
         <v>201</v>
       </c>
       <c r="D36">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>"Uhabia": {label:"Uhabia - Bassilour", x:201, y:584},</v>
+        <v>"Uhabia": {label:"Uhabia - Bassilour", x:201, y:609},</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">

--- a/_data/data.xlsx
+++ b/_data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briac\git\bab-a-velo\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2CD47-56D4-41E2-AA69-399E6E9DFA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10786990-2A6B-4582-BACE-07411BE9AE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5BF2F094-2AF3-4F97-9DFC-FB300D796DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BF2F094-2AF3-4F97-9DFC-FB300D796DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Trajets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
   <si>
     <t>Mora</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Inactif</t>
+  </si>
+  <si>
+    <t>a_pied</t>
   </si>
 </sst>
 </file>
@@ -317,13 +320,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,19 +648,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF6C08D-8714-4B59-AF4B-AB3081A3DF97}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.44140625" style="4" customWidth="1"/>
     <col min="2" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1088,7 +1095,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -1163,7 +1170,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
       <c r="B28" t="s">
@@ -1514,7 +1521,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -2159,9 +2166,12 @@
       <c r="E82">
         <v>4</v>
       </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ start: "Izarbel", end: "LoreLanda", difficulty: 0, time: 4 },</v>
+        <v>{ start: "Izarbel", end: "LoreLanda", difficulty: 0, time: 4, className:"a_pied" },</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
@@ -2347,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5480694-7368-450D-8AFA-446FD6A20927}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
